--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124211a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124211a.xlsx
@@ -1,37 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="dados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="dados" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+  <si>
+    <t>unnamed: 1_level_0</t>
+  </si>
+  <si>
+    <t>falta de provas</t>
+  </si>
+  <si>
+    <t>não era importante</t>
+  </si>
+  <si>
+    <t>não acreditavam na polícia</t>
+  </si>
+  <si>
+    <t>não queriam envolver a polícia ou medo de represália</t>
+  </si>
+  <si>
+    <t>outro</t>
+  </si>
+  <si>
+    <t>1.768869295502065</t>
+  </si>
+  <si>
+    <t>4.643458916873252</t>
+  </si>
+  <si>
+    <t>3.1438208991859162</t>
+  </si>
+  <si>
+    <t>2.694973305533619</t>
+  </si>
+  <si>
+    <t>3.268807523593266</t>
+  </si>
+  <si>
+    <t>4.890174280777566</t>
+  </si>
+  <si>
+    <t>sem instrução</t>
+  </si>
+  <si>
+    <t>fundamental incompleto ou equivalente</t>
+  </si>
+  <si>
+    <t>fundamental completo ou equivalente</t>
+  </si>
+  <si>
+    <t>médio incompleto ou equivalente</t>
+  </si>
+  <si>
+    <t>médio completo ou equivalente</t>
+  </si>
+  <si>
+    <t>superior incompleto ou equivalente</t>
+  </si>
+  <si>
+    <t>superior completo ou equivalente</t>
+  </si>
+  <si>
+    <t>norte (1)</t>
+  </si>
+  <si>
+    <t>nordeste (1)</t>
+  </si>
+  <si>
+    <t>sudeste (1)</t>
+  </si>
+  <si>
+    <t>sul (1)</t>
+  </si>
+  <si>
+    <t>centro-oeste (1)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +126,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1253 +442,1137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 1_level_0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Falta de provas</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Não era importante</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Não acreditavam na polícia</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Não queriam envolver a polícia ou medo de represália</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Outro</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Brasil (1)</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1.768869295502065</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>4.643458916873252</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>3.143820899185916</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>2.694973305533619</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>3.268807523593266</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>4.890174280777566</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Sem instrução</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>5.99</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>14.06</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>14.54</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>10.48</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>11.67</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>18.54</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Fundamental incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>2.86</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>6.97</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>5.35</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>4.72</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>5.59</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>8.66</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Fundamental completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
         <v>4.31</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>12.65</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>8.619999999999999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>6.91</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>8.800000000000001</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>14.06</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Médio incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>3.97</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>12.44</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>7.69</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>6.06</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>8.039999999999999</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>12.87</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Médio completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
         <v>2.78</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8.699999999999999</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>5.24</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>4.27</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>6.12</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>8.67</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Superior incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
         <v>5.63</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>15.92</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>10.25</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>8.98</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>13.79</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>17.73</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Superior completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
         <v>5.6</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>18.23</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>11.27</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>8.18</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>14.39</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>15.07</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Norte (1)</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
         <v>4.59</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>12.32</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>7.47</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>5.84</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>7.97</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>12.42</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Sem instrução</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
         <v>15.64</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>32.51</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>40.35</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>28.29</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>27.71</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>50.3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Fundamental incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
         <v>6.78</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>17.38</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>12.57</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>7.95</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>12.91</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>20.59</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fundamental completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
         <v>10.38</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>32.13</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>17.56</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>14.24</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>23.85</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>33.79</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Médio incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>8.43</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>25.51</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>17.24</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>11.18</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>20.36</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>33.69</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Médio completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
         <v>6.07</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>20.96</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>12.01</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>8.09</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>13</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>29.69</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Superior incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
         <v>14.25</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>50.67</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>28.16</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>18.18</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>33.61</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>57.89</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Superior completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
         <v>14.29</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>44.27</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>31.06</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>20.67</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>35.66</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>41.13</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Nordeste (1)</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
         <v>3.07</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>8.039999999999999</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>4.95</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>4.52</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>4.78</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>7.45</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Sem instrução</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
         <v>7.91</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>19.14</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>18.94</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>13.62</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>15.18</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>27.49</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Fundamental incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
         <v>4.54</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>10.45</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>7.6</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>8.289999999999999</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>8.27</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>13.27</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Fundamental completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
         <v>7.13</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>21.92</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>13.94</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>11.75</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>12.29</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>22.36</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Médio incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>20.37</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>11.43</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>8.73</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>11.61</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>19.35</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Médio completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
         <v>4.56</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>16.96</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>8.140000000000001</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>6.4</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>8.41</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>12.43</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Superior incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
         <v>8.44</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>25.87</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>14.89</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>13.88</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>18.99</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>32.09</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Superior completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
         <v>9.08</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>45.01</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>17.47</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>12.35</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>19.82</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>29.73</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Sudeste (1)</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
         <v>3.09</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>8.720000000000001</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>6.07</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>5.07</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>6.33</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>8.92</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Sem instrução</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
         <v>14.72</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>38.77</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>43.89</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>25.16</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>24.96</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>34.62</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Fundamental incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
         <v>5.84</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>17.34</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>11.78</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>9.69</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>11.38</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>17.95</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Fundamental completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
         <v>7.88</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>22.44</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>15.76</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>13.79</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>15.57</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>24.76</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Médio incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
         <v>8.699999999999999</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>29.59</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>17.57</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>13.43</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>18.14</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>24.77</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Médio completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>13.88</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>9.94</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>8.58</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>12.14</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>15.78</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Superior incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
         <v>9.74</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>25.2</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>17.29</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>15.77</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>27.62</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>26.79</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Superior completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
         <v>8.74</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>26.65</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>17.71</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>13.94</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>23.21</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>20.29</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Sul (1)</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35">
         <v>4.84</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>11.22</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>8.84</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>8.5</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>11.13</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>11.79</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Sem instrução</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
         <v>19.52</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>40.21</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>39.43</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>78.29000000000001</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>44.58</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>56.69</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Fundamental incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
         <v>9.18</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>19.12</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>17.82</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>15.57</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>20.86</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>22.16</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Fundamental completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38">
         <v>11.25</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>25.15</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>28.07</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>17.94</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>29.48</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>37.57</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Médio incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
         <v>11.99</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>31.8</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>21.61</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>23.26</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>22.08</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>44.5</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Médio completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40">
         <v>8.84</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>20.66</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>15.73</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>18.06</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>22.1</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>22.45</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Superior incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41">
         <v>15.54</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>51.08</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>27.99</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>26.12</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>40.01</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>38.34</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>Superior completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
         <v>14.41</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>46.81</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>26.01</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>20.48</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>52.98</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>33.31</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Centro-Oeste (1)</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43">
         <v>5.24</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>13.21</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>9.1</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>7.97</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>11.08</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>14.36</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Sem instrução</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
         <v>20.05</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>57.85</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>50.14</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>30.67</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>58.01</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>56.67</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>Fundamental incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
         <v>7.88</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>19.66</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>15.32</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>12.34</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>16.54</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>21.34</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Fundamental completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
         <v>12.81</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>35.68</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>25.58</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>21.19</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>34.04</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>38.86</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>Médio incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
         <v>11.14</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>30.82</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>21.51</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>19.2</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>21.62</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>32.22</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>Médio completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
         <v>9.76</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>35.47</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>15.88</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>15.65</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>23.73</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>30.34</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Superior incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
         <v>17.93</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>42.3</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>37.99</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>26.62</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>58.67</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>72.45999999999999</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>Superior completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
         <v>18.7</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>35.88</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>45.23</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>30.94</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>59.23</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>73.43000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>